--- a/TESTCASE.xlsx
+++ b/TESTCASE.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="37">
   <si>
     <t>TestCase</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Value</t>
   </si>
   <si>
-    <t>fsafsdfd</t>
+    <t>werwerwer</t>
   </si>
   <si>
     <t>TC001</t>
@@ -44,43 +44,40 @@
     <t>TC002</t>
   </si>
   <si>
-    <t>WAIT</t>
-  </si>
-  <si>
-    <t>XPATH</t>
-  </si>
-  <si>
-    <t>fsfsdaf</t>
+    <t>PASTE</t>
+  </si>
+  <si>
+    <t>rwerew</t>
   </si>
   <si>
     <t>TC003</t>
   </si>
   <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
     <t>TC004</t>
   </si>
   <si>
-    <t>PASTE</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A</t>
+    <t>Cần Thơ</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>1992</t>
   </si>
   <si>
     <t>TC005</t>
   </si>
   <si>
-    <t>TC009</t>
-  </si>
-  <si>
-    <t>Cần Thơ</t>
+    <t>dasdad</t>
+  </si>
+  <si>
+    <t>TC006</t>
   </si>
   <si>
     <t>TC007</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>TC008</t>
   </si>
   <si>
     <t>Nguyễn Văn B</t>
@@ -230,10 +227,10 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -241,19 +238,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -264,16 +261,16 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -281,19 +278,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -304,13 +301,13 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -324,16 +321,16 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -341,19 +338,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -390,10 +387,10 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
         <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -401,7 +398,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -413,7 +410,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -424,16 +421,16 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
         <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -441,16 +438,16 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
@@ -464,13 +461,13 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
@@ -484,16 +481,16 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
@@ -501,19 +498,19 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -550,10 +547,10 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
         <v>11</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -561,7 +558,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -573,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -584,16 +581,16 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
         <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -601,19 +598,19 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -624,13 +621,13 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
@@ -644,16 +641,16 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -661,19 +658,19 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
@@ -710,10 +707,10 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
         <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -721,7 +718,7 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -733,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -744,16 +741,16 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
         <v>15</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="30">
@@ -761,16 +758,16 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
         <v>26</v>
@@ -784,13 +781,13 @@
         <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
         <v>19</v>
@@ -804,16 +801,16 @@
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
@@ -821,19 +818,19 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
@@ -870,10 +867,10 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
         <v>11</v>
-      </c>
-      <c r="F35" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -881,7 +878,7 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
@@ -893,7 +890,7 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
@@ -904,13 +901,13 @@
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
         <v>28</v>
@@ -921,19 +918,19 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
@@ -944,16 +941,16 @@
         <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
@@ -964,16 +961,16 @@
         <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
@@ -981,19 +978,19 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
@@ -1030,10 +1027,10 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
         <v>11</v>
-      </c>
-      <c r="F43" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -1041,7 +1038,7 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
@@ -1053,7 +1050,7 @@
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
@@ -1064,16 +1061,16 @@
         <v>14</v>
       </c>
       <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
         <v>15</v>
-      </c>
-      <c r="D45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="46">
@@ -1081,16 +1078,16 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
         <v>30</v>
@@ -1104,13 +1101,13 @@
         <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
         <v>19</v>
@@ -1124,16 +1121,16 @@
         <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
@@ -1141,19 +1138,19 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
@@ -1190,10 +1187,10 @@
         <v>8</v>
       </c>
       <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
         <v>11</v>
-      </c>
-      <c r="F51" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="52">
@@ -1201,7 +1198,7 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
@@ -1213,7 +1210,7 @@
         <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53">
@@ -1224,13 +1221,13 @@
         <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F53" t="s">
         <v>32</v>
@@ -1241,19 +1238,19 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
@@ -1264,16 +1261,16 @@
         <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
@@ -1284,16 +1281,16 @@
         <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57">
@@ -1301,19 +1298,19 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
@@ -1350,10 +1347,10 @@
         <v>8</v>
       </c>
       <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
         <v>11</v>
-      </c>
-      <c r="F59" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="60">
@@ -1361,7 +1358,7 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
@@ -1373,7 +1370,7 @@
         <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61">
@@ -1384,16 +1381,16 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
         <v>15</v>
-      </c>
-      <c r="D61" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="62">
@@ -1401,19 +1398,19 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63">
@@ -1424,13 +1421,13 @@
         <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F63" t="s">
         <v>19</v>
@@ -1444,16 +1441,16 @@
         <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
@@ -1461,19 +1458,19 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66">
@@ -1510,10 +1507,10 @@
         <v>8</v>
       </c>
       <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" t="s">
         <v>11</v>
-      </c>
-      <c r="F67" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="68">
@@ -1521,7 +1518,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
         <v>10</v>
@@ -1533,7 +1530,7 @@
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
@@ -1544,13 +1541,13 @@
         <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F69" t="s">
         <v>35</v>
@@ -1561,19 +1558,19 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71">
@@ -1584,16 +1581,16 @@
         <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
@@ -1604,16 +1601,16 @@
         <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73">
@@ -1621,19 +1618,19 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
